--- a/Avaya.xlsx
+++ b/Avaya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed802259b52850f8/Escritorio/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{501D697F-321A-4522-834B-45630D136AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F010970B-A075-4E92-95CC-5A38199C0CF5}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{501D697F-321A-4522-834B-45630D136AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B6933A-2BD4-4A13-97C9-18CA37ADA071}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,60 +86,6 @@
     <t>%Cap. Occupancy</t>
   </si>
   <si>
-    <t>Agent Name - ID: Arcadio Ruiz - 1907</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Karina Macias - 1908</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Katia Angulo - 1503</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Ma Fernanda Jaime - 1911</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Nadine Nieves - 1910</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Aime Rodriguez - 1906</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Enrique Izquierdo - 1403</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Eva Narcio - 1604</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Evelyn Hernandez - 1905</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Ivy Stafford - 1504</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Kathia P Orozco - 1601</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Kenia Hernandez - 1902</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Martha Contreras - 1904</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Monserrat Velazquez - 1909</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Paulina Vazquez - 1106</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Rosario Osuna - 1701</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Lourdes Laurel - 1101</t>
-  </si>
-  <si>
-    <t>Agent Name - ID: Karla Garcia - 1801</t>
-  </si>
-  <si>
     <t>6.502.932.184</t>
   </si>
   <si>
@@ -588,6 +534,60 @@
   </si>
   <si>
     <t>3.524.719.634</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Eva - 1604</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Ivy - 1504</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Karina - 1908</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Karla - 1801</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Katia - 1503</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Fernanda - 1911</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Monserrat - 1909</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Nadine - 1910</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Paulina - 1106</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Rosario - 1701</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Aime - 1906</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Arcadio - 1907</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Enrique - 1403</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Evelyn - 1905</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Kathia - 1601</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Kenia - 1902</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Lourdes - 1101</t>
+  </si>
+  <si>
+    <t>Agent Name - ID: Martha - 1904</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
         <v>45976</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C2" s="6">
         <v>0.23091435185185186</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1006,7 +1006,7 @@
         <v>45976</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C3" s="6">
         <v>0.21326388888888889</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1059,7 +1059,7 @@
         <v>45976</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C4" s="6">
         <v>0.31288194444444445</v>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1112,7 +1112,7 @@
         <v>45976</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6">
         <v>0.32427083333333334</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1165,7 +1165,7 @@
         <v>45976</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C6" s="6">
         <v>0.30894675925925924</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1218,7 +1218,7 @@
         <v>45977</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C7" s="6">
         <v>0.33361111111111114</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>45977</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6">
         <v>0.3336689814814815</v>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1324,7 +1324,7 @@
         <v>45977</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C9" s="6">
         <v>0.35031250000000003</v>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1377,7 +1377,7 @@
         <v>45977</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C10" s="6">
         <v>0.29499999999999998</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,7 +1430,7 @@
         <v>45977</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="C11" s="6">
         <v>0.34160879629629631</v>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1483,7 +1483,7 @@
         <v>45977</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C12" s="6">
         <v>0.3324537037037037</v>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1536,7 +1536,7 @@
         <v>45977</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6">
         <v>0.33349537037037036</v>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
         <v>45977</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C14" s="6">
         <v>0.33535879629629628</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1642,7 +1642,7 @@
         <v>45977</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C15" s="6">
         <v>0.3333564814814815</v>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1695,7 +1695,7 @@
         <v>45977</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C16" s="6">
         <v>0.33582175925925928</v>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1748,7 +1748,7 @@
         <v>45977</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6">
         <v>0.33859953703703705</v>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1801,7 +1801,7 @@
         <v>45977</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C18" s="6">
         <v>0.33576388888888886</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1854,7 +1854,7 @@
         <v>45977</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6">
         <v>0.34513888888888888</v>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1907,7 +1907,7 @@
         <v>45977</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C20" s="6">
         <v>0.35428240740740741</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1960,7 +1960,7 @@
         <v>45977</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C21" s="6">
         <v>0.33247685185185183</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2013,7 +2013,7 @@
         <v>45977</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C22" s="6">
         <v>0.33406249999999998</v>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2066,7 +2066,7 @@
         <v>46007</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C23" s="6">
         <v>0.33855324074074072</v>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2119,7 +2119,7 @@
         <v>46007</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C24" s="6">
         <v>0.33348379629629632</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2172,7 +2172,7 @@
         <v>46007</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C25" s="6">
         <v>0.41187499999999999</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2225,7 +2225,7 @@
         <v>46007</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C26" s="6">
         <v>0.37832175925925926</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2278,7 +2278,7 @@
         <v>46007</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C27" s="6">
         <v>0.33355324074074072</v>
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2331,7 +2331,7 @@
         <v>46007</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C28" s="6">
         <v>0.33606481481481482</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2384,7 +2384,7 @@
         <v>46007</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C29" s="6">
         <v>0.33444444444444443</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2437,7 +2437,7 @@
         <v>46007</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C30" s="6">
         <v>0.33329861111111109</v>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2490,7 +2490,7 @@
         <v>46007</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C31" s="6">
         <v>0.33644675925925926</v>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2543,7 +2543,7 @@
         <v>46007</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="C32" s="6">
         <v>0.33758101851851852</v>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2596,7 +2596,7 @@
         <v>46007</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C33" s="6">
         <v>0.33358796296296295</v>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2649,7 +2649,7 @@
         <v>46007</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C34" s="6">
         <v>0.33976851851851853</v>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2702,7 +2702,7 @@
         <v>46007</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C35" s="6">
         <v>0.33393518518518517</v>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2755,7 +2755,7 @@
         <v>46007</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C36" s="6">
         <v>0.21098379629629629</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2808,7 +2808,7 @@
         <v>46007</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C37" s="6">
         <v>0.32480324074074074</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2861,7 +2861,7 @@
         <v>45978</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C38" s="6">
         <v>0.36</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2914,7 +2914,7 @@
         <v>45978</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C39" s="6">
         <v>0.3599074074074074</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2967,7 +2967,7 @@
         <v>45978</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C40" s="6">
         <v>0.34315972222222224</v>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3020,7 +3020,7 @@
         <v>45978</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C41" s="6">
         <v>0.33856481481481482</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3073,7 +3073,7 @@
         <v>45978</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C42" s="6">
         <v>0.3322222222222222</v>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3126,7 +3126,7 @@
         <v>45978</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C43" s="6">
         <v>0.34390046296296295</v>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3179,7 +3179,7 @@
         <v>45978</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C44" s="6">
         <v>0.3389699074074074</v>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3232,7 +3232,7 @@
         <v>45978</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C45" s="6">
         <v>0.33678240740740739</v>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3285,7 +3285,7 @@
         <v>45978</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C46" s="6">
         <v>0.33489583333333334</v>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3338,7 +3338,7 @@
         <v>45978</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="C47" s="6">
         <v>0.33281250000000001</v>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3391,7 +3391,7 @@
         <v>45978</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C48" s="6">
         <v>0.33702546296296299</v>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3444,7 +3444,7 @@
         <v>45978</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C49" s="6">
         <v>0.33708333333333335</v>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3497,7 +3497,7 @@
         <v>45978</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C50" s="6">
         <v>0.33317129629629627</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3550,7 +3550,7 @@
         <v>45978</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C51" s="6">
         <v>0.33111111111111113</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3603,7 +3603,7 @@
         <v>45978</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C52" s="6">
         <v>0.33513888888888888</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3656,7 +3656,7 @@
         <v>45979</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C53" s="6">
         <v>0.33475694444444443</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3709,7 +3709,7 @@
         <v>45979</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C54" s="6">
         <v>0.33535879629629628</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3762,7 +3762,7 @@
         <v>45979</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C55" s="6">
         <v>0.35128472222222223</v>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3815,7 +3815,7 @@
         <v>45979</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C56" s="6">
         <v>0.3321527777777778</v>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3868,7 +3868,7 @@
         <v>45979</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C57" s="6">
         <v>0.33256944444444442</v>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3921,7 +3921,7 @@
         <v>45979</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C58" s="6">
         <v>0.33644675925925926</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3974,7 +3974,7 @@
         <v>45979</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C59" s="6">
         <v>0.33319444444444446</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4027,7 +4027,7 @@
         <v>45979</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C60" s="6">
         <v>0.33484953703703701</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4080,7 +4080,7 @@
         <v>45979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C61" s="6">
         <v>0.33395833333333336</v>
@@ -4125,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4133,7 +4133,7 @@
         <v>45979</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="C62" s="6">
         <v>0.33315972222222223</v>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4186,7 +4186,7 @@
         <v>45979</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C63" s="6">
         <v>0.35824074074074075</v>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4239,7 +4239,7 @@
         <v>45979</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C64" s="6">
         <v>0.17469907407407406</v>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4292,7 +4292,7 @@
         <v>45979</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C65" s="6">
         <v>0.34502314814814816</v>
@@ -4337,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4345,7 +4345,7 @@
         <v>45979</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C66" s="6">
         <v>0.33326388888888892</v>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4398,7 +4398,7 @@
         <v>45979</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C67" s="6">
         <v>0.33631944444444445</v>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4451,7 +4451,7 @@
         <v>45979</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C68" s="6">
         <v>0.33957175925925925</v>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4504,7 +4504,7 @@
         <v>45980</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C69" s="6">
         <v>0.32930555555555557</v>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4557,7 +4557,7 @@
         <v>45980</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C70" s="6">
         <v>0.34765046296296298</v>
@@ -4602,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4610,7 +4610,7 @@
         <v>45980</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C71" s="6">
         <v>0.33887731481481481</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4663,7 +4663,7 @@
         <v>45980</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C72" s="6">
         <v>0.32365740740740739</v>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4716,7 +4716,7 @@
         <v>45980</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C73" s="6">
         <v>0.33322916666666669</v>
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4769,7 +4769,7 @@
         <v>45980</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C74" s="6">
         <v>0.33842592592592591</v>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4822,7 +4822,7 @@
         <v>45980</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C75" s="6">
         <v>0.33401620370370372</v>
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4875,7 +4875,7 @@
         <v>45980</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C76" s="6">
         <v>0.33537037037037037</v>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4928,7 +4928,7 @@
         <v>45980</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C77" s="6">
         <v>0.33581018518518518</v>
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4981,7 +4981,7 @@
         <v>45980</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="C78" s="6">
         <v>0.33656249999999999</v>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5034,7 +5034,7 @@
         <v>45980</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C79" s="6">
         <v>0.33336805555555554</v>
@@ -5079,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5087,7 +5087,7 @@
         <v>45980</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C80" s="6">
         <v>0.32293981481481482</v>
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5140,7 +5140,7 @@
         <v>45980</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C81" s="6">
         <v>0.33444444444444443</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5193,7 +5193,7 @@
         <v>45980</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C82" s="6">
         <v>0.33337962962962964</v>
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5246,7 +5246,7 @@
         <v>45980</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C83" s="6">
         <v>0.33619212962962963</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5299,7 +5299,7 @@
         <v>45980</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C84" s="6">
         <v>0.33429398148148148</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5352,7 +5352,7 @@
         <v>45981</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C85" s="6">
         <v>7.8460648148148154E-2</v>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5405,7 +5405,7 @@
         <v>45981</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C86" s="6">
         <v>0.22365740740740742</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5458,7 +5458,7 @@
         <v>45981</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C87" s="6">
         <v>0.21576388888888889</v>
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5511,7 +5511,7 @@
         <v>45981</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C88" s="6">
         <v>0.31238425925925928</v>
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5564,7 +5564,7 @@
         <v>45981</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C89" s="6">
         <v>0.31687500000000002</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5617,7 +5617,7 @@
         <v>45981</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C90" s="6">
         <v>0.3175810185185185</v>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5670,7 +5670,7 @@
         <v>45982</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C91" s="6">
         <v>0.33298611111111109</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5723,7 +5723,7 @@
         <v>45982</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C92" s="6">
         <v>0.3490509259259259</v>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5776,7 +5776,7 @@
         <v>45982</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C93" s="6">
         <v>0.34011574074074075</v>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5829,7 +5829,7 @@
         <v>45982</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C94" s="6">
         <v>0.37357638888888889</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5882,7 +5882,7 @@
         <v>45982</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C95" s="6">
         <v>0.33421296296296299</v>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5935,7 +5935,7 @@
         <v>45982</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C96" s="6">
         <v>0.33667824074074076</v>
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5988,7 +5988,7 @@
         <v>45982</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C97" s="6">
         <v>0.33328703703703705</v>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6041,7 +6041,7 @@
         <v>45982</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C98" s="6">
         <v>0.33592592592592591</v>
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6094,7 +6094,7 @@
         <v>45982</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C99" s="6">
         <v>0.33285879629629628</v>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="Q99" s="5" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6147,7 +6147,7 @@
         <v>45982</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C100" s="6">
         <v>0.33268518518518519</v>
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6200,7 +6200,7 @@
         <v>45982</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C101" s="6">
         <v>0.32605324074074077</v>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="Q101" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6253,7 +6253,7 @@
         <v>45982</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C102" s="6">
         <v>0.3334259259259259</v>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6306,7 +6306,7 @@
         <v>45982</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C103" s="6">
         <v>0.33361111111111114</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6359,7 +6359,7 @@
         <v>46014</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C104" s="6">
         <v>0.33526620370370369</v>
@@ -6404,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6412,7 +6412,7 @@
         <v>46014</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C105" s="6">
         <v>0.34087962962962964</v>
@@ -6457,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6465,7 +6465,7 @@
         <v>46014</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C106" s="6">
         <v>0.34712962962962962</v>
@@ -6510,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6518,7 +6518,7 @@
         <v>46014</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C107" s="6">
         <v>0.22261574074074075</v>
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6571,7 +6571,7 @@
         <v>46014</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="C108" s="6">
         <v>0.33317129629629627</v>
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6624,7 +6624,7 @@
         <v>46014</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C109" s="6">
         <v>0.33620370370370373</v>
@@ -6669,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="Q109" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6677,7 +6677,7 @@
         <v>46014</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C110" s="6">
         <v>0.33704861111111112</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6730,7 +6730,7 @@
         <v>46014</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C111" s="6">
         <v>0.3333564814814815</v>
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6783,7 +6783,7 @@
         <v>46014</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C112" s="6">
         <v>0.34023148148148147</v>
@@ -6828,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="Q112" s="5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6836,7 +6836,7 @@
         <v>46014</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C113" s="6">
         <v>0.33326388888888892</v>
@@ -6881,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6889,7 +6889,7 @@
         <v>46014</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C114" s="6">
         <v>0.20886574074074074</v>
@@ -6934,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6942,7 +6942,7 @@
         <v>46014</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="C115" s="6">
         <v>0.32998842592592592</v>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6995,7 +6995,7 @@
         <v>46014</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C116" s="6">
         <v>0.33684027777777775</v>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="Q116" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7048,7 +7048,7 @@
         <v>46014</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C117" s="6">
         <v>0.33398148148148149</v>
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="Q117" s="5" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7101,7 +7101,7 @@
         <v>46014</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C118" s="6">
         <v>0.3399537037037037</v>
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="Q118" s="5" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7154,7 +7154,7 @@
         <v>46014</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C119" s="6">
         <v>0.34019675925925924</v>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7207,7 +7207,7 @@
         <v>46014</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C120" s="6">
         <v>0.33881944444444445</v>
@@ -7252,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7260,7 +7260,7 @@
         <v>46014</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C121" s="6">
         <v>0.33163194444444444</v>
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="Q121" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7313,7 +7313,7 @@
         <v>46015</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C122" s="6">
         <v>0.25033564814814813</v>
@@ -7358,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7366,7 +7366,7 @@
         <v>46015</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C123" s="6">
         <v>0.26521990740740742</v>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7419,7 +7419,7 @@
         <v>46015</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C124" s="6">
         <v>0.25126157407407407</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7472,7 +7472,7 @@
         <v>46015</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C125" s="6">
         <v>0.25247685185185187</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7525,7 +7525,7 @@
         <v>46015</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C126" s="6">
         <v>0.25195601851851851</v>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7578,7 +7578,7 @@
         <v>46015</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C127" s="6">
         <v>0.25070601851851854</v>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="Q127" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7631,7 +7631,7 @@
         <v>46015</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C128" s="6">
         <v>0.24535879629629628</v>
@@ -7676,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7684,7 +7684,7 @@
         <v>46015</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C129" s="6">
         <v>0.17033564814814814</v>
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7737,7 +7737,7 @@
         <v>46015</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C130" s="6">
         <v>0.25180555555555556</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7790,7 +7790,7 @@
         <v>46017</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C131" s="6">
         <v>0.33449074074074076</v>
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7843,7 +7843,7 @@
         <v>46017</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C132" s="6">
         <v>0.33630787037037035</v>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="Q132" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7896,7 +7896,7 @@
         <v>46017</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C133" s="6">
         <v>0.35848379629629629</v>
@@ -7941,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7949,7 +7949,7 @@
         <v>46017</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C134" s="6">
         <v>0.34010416666666665</v>
@@ -7994,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8002,7 +8002,7 @@
         <v>46017</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="C135" s="6">
         <v>0.3334259259259259</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="Q135" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8055,7 +8055,7 @@
         <v>46017</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C136" s="6">
         <v>0.33141203703703703</v>
@@ -8100,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="Q136" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8108,7 +8108,7 @@
         <v>46017</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C137" s="6">
         <v>0.33634259259259258</v>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="Q137" s="5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8161,7 +8161,7 @@
         <v>46017</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C138" s="6">
         <v>0.3357175925925926</v>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8214,7 +8214,7 @@
         <v>46017</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C139" s="6">
         <v>0.333125</v>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="Q139" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8267,7 +8267,7 @@
         <v>46017</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C140" s="6">
         <v>0.33438657407407407</v>
@@ -8312,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="Q140" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8320,7 +8320,7 @@
         <v>46017</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C141" s="6">
         <v>0.33857638888888891</v>
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="Q141" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8373,7 +8373,7 @@
         <v>46017</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C142" s="6">
         <v>0.3359375</v>
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="Q142" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8426,7 +8426,7 @@
         <v>46017</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C143" s="6">
         <v>0.37333333333333335</v>
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="Q143" s="5" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8479,7 +8479,7 @@
         <v>46017</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C144" s="6">
         <v>0.33613425925925927</v>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="Q144" s="5" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8532,7 +8532,7 @@
         <v>46017</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C145" s="6">
         <v>0.33447916666666666</v>
@@ -8577,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="Q145" s="5" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8585,7 +8585,7 @@
         <v>46018</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C146" s="6">
         <v>0.20950231481481482</v>
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8638,7 +8638,7 @@
         <v>46018</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="C147" s="6">
         <v>0.31471064814814814</v>
@@ -8683,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="Q147" s="5" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8691,7 +8691,7 @@
         <v>46018</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C148" s="6">
         <v>0.31252314814814813</v>
@@ -8736,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="Q148" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8744,7 +8744,7 @@
         <v>46018</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C149" s="6">
         <v>0.2152199074074074</v>
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="Q149" s="5" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8797,7 +8797,7 @@
         <v>46018</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C150" s="6">
         <v>0.31615740740740739</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="Q150" s="5" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8850,7 +8850,7 @@
         <v>46018</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C151" s="6">
         <v>0.29310185185185184</v>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="Q151" s="5" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
